--- a/Test_Data/data_testing.xlsx
+++ b/Test_Data/data_testing.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -42,12 +38,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Khan@00981</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -379,7 +369,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,22 +402,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
